--- a/biology/Botanique/Piment_d'Anglet/Piment_d'Anglet.xlsx
+++ b/biology/Botanique/Piment_d'Anglet/Piment_d'Anglet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piment_d%27Anglet</t>
+          <t>Piment_d'Anglet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le piment doux des Landes et du Seignanx[3] ou piment d'Anglet  est une production maraîchère traditionnelle des Landes et depuis quelques années d’Anglet.
+Le piment doux des Landes et du Seignanx ou piment d'Anglet  est une production maraîchère traditionnelle des Landes et depuis quelques années d’Anglet.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Piment_d%27Anglet</t>
+          <t>Piment_d'Anglet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Piment vert et doux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Piment doux long des Landes est un légume ancien cultivé dans le département des Landes comme son nom vernaculaire l’indique.
 Depuis quelques années dans les Pyrénées atlantique.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Piment_d%27Anglet</t>
+          <t>Piment_d'Anglet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Biper Eztia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les producteurs de Piment doux se sont regroupés au sein du syndicat du Piment doux du Pays basque et du Seignanx en 2003 et ont obtenu Label Rouge en 2016 [4] dans le but d'offrir à leur clientèle une qualité et à leur producteurs, un label de qualité. Pour cela, ils ont sélectionné les variétés les mieux adaptées à leurs terroirs, puis ils ont harmonisé leurs méthodes de culture. Les consommateurs et consommatrices peuvent reconnaître ce produit par les logos « Label Rouge » et « Biper Eztia, Piment doux » [5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les producteurs de Piment doux se sont regroupés au sein du syndicat du Piment doux du Pays basque et du Seignanx en 2003 et ont obtenu Label Rouge en 2016  dans le but d'offrir à leur clientèle une qualité et à leur producteurs, un label de qualité. Pour cela, ils ont sélectionné les variétés les mieux adaptées à leurs terroirs, puis ils ont harmonisé leurs méthodes de culture. Les consommateurs et consommatrices peuvent reconnaître ce produit par les logos « Label Rouge » et « Biper Eztia, Piment doux » .
 Depuis 2004, le Syndicat organise chaque année le Championnat du monde de l'omelette aux piments lors de la première journée des fêtes de Bayonne. 
 </t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Piment_d%27Anglet</t>
+          <t>Piment_d'Anglet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Utilisation culinaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un ingrédient de la cuisine landaise et basque. Il est l'un des légumes locaux traditionnels, c'est lui par exemple qui permet de préparer l'omelette aux piments, la piperade, le poulet landais basquaise ou l'axoa[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un ingrédient de la cuisine landaise et basque. Il est l'un des légumes locaux traditionnels, c'est lui par exemple qui permet de préparer l'omelette aux piments, la piperade, le poulet landais basquaise ou l'axoa.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piment_d%27Anglet</t>
+          <t>Piment_d'Anglet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cave de l'appellation d'origine contrôlée Irouléguy, qui parraine chaque édition du championnat du monde de l'omelette aux piments, propose les trois couleurs de ses vins à la dégustation[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cave de l'appellation d'origine contrôlée Irouléguy, qui parraine chaque édition du championnat du monde de l'omelette aux piments, propose les trois couleurs de ses vins à la dégustation.
 </t>
         </is>
       </c>
